--- a/docs/Examples/Example8_Uncertainty_MI_Vapour_Bubbles/Wieser_2021_Kilauea.xlsx
+++ b/docs/Examples/Example8_Uncertainty_MI_Vapour_Bubbles/Wieser_2021_Kilauea.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73708eac12f6644f/Documents/Berkeley_NEW/DiadFit_outer/docs/Examples/Example8_Uncertainty_MI_Vapour_Bubbles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\penny\Box\Berkeley_new\DiadFit_outer\docs\Examples\Example8_Uncertainty_MI_Vapour_Bubbles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E13036A-DFC6-4CD8-A263-95789BEDD786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20775F8D-BC4B-4673-AB74-C592A8B8B827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{96BAB5E2-6C22-4EDD-A342-48E562EC6B70}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{96BAB5E2-6C22-4EDD-A342-48E562EC6B70}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="159">
   <si>
     <t>Sample Name</t>
   </si>
@@ -659,7 +659,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -695,6 +695,15 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -15591,80 +15600,79 @@
   <dimension ref="A1:X104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.26953125" customWidth="1"/>
+    <col min="18" max="18" width="19.36328125" customWidth="1"/>
+    <col min="19" max="19" width="20.1796875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:24" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="X1" s="1"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -15723,24 +15731,13 @@
         <v>2.1976516641942102E-2</v>
       </c>
       <c r="S2" s="24">
-        <f>0.3217*(T2)</f>
         <v>6.6175525523739533E-4</v>
       </c>
-      <c r="T2" s="8">
-        <v>2.0570570570015399E-3</v>
-      </c>
-      <c r="U2" s="21">
-        <v>309.58201117830203</v>
-      </c>
-      <c r="V2" s="21">
-        <v>110.634623800214</v>
-      </c>
-      <c r="W2" s="21">
-        <v>248.34484627836301</v>
-      </c>
-      <c r="X2" s="21">
-        <v>212.988718935131</v>
-      </c>
+      <c r="T2" s="8"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -15799,24 +15796,13 @@
         <v>2.2912478255257399E-2</v>
       </c>
       <c r="S3" s="24">
-        <f t="shared" ref="S3:S57" si="1">0.3217*(T3)</f>
         <v>6.0032835919725325E-3</v>
       </c>
-      <c r="T3" s="8">
-        <v>1.8661124003644801E-2</v>
-      </c>
-      <c r="U3" s="21">
-        <v>622.84462836407101</v>
-      </c>
-      <c r="V3" s="21">
-        <v>138.24550572487999</v>
-      </c>
-      <c r="W3" s="21">
-        <v>397.73908284216702</v>
-      </c>
-      <c r="X3" s="21">
-        <v>304.57085752520697</v>
-      </c>
+      <c r="T3" s="8"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -15875,24 +15861,13 @@
         <v>2.9049681162824501E-2</v>
       </c>
       <c r="S4" s="24">
-        <f t="shared" si="1"/>
         <v>5.2061665460325496E-4</v>
       </c>
-      <c r="T4" s="8">
-        <v>1.61832966926719E-3</v>
-      </c>
-      <c r="U4" s="21">
-        <v>595.86362583285302</v>
-      </c>
-      <c r="V4" s="21">
-        <v>218.20297711431601</v>
-      </c>
-      <c r="W4" s="21">
-        <v>468.58135597791102</v>
-      </c>
-      <c r="X4" s="21">
-        <v>360.39175202115899</v>
-      </c>
+      <c r="T4" s="8"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -15951,24 +15926,13 @@
         <v>5.2224762143062299E-2</v>
       </c>
       <c r="S5" s="24">
-        <f t="shared" si="1"/>
         <v>9.5786004834977363E-3</v>
       </c>
-      <c r="T5" s="8">
-        <v>2.97749471044381E-2</v>
-      </c>
-      <c r="U5" s="21">
-        <v>1585.9306894793599</v>
-      </c>
-      <c r="V5" s="21">
-        <v>415.29336313849302</v>
-      </c>
-      <c r="W5" s="21">
-        <v>1001.96455654284</v>
-      </c>
-      <c r="X5" s="21">
-        <v>790.94139291351803</v>
-      </c>
+      <c r="T5" s="8"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -16027,24 +15991,13 @@
         <v>2.99964191622877E-2</v>
       </c>
       <c r="S6" s="24">
-        <f t="shared" si="1"/>
         <v>8.9634829828680838E-3</v>
       </c>
-      <c r="T6" s="8">
-        <v>2.7862862862505701E-2</v>
-      </c>
-      <c r="U6" s="21">
-        <v>1109.9894115954501</v>
-      </c>
-      <c r="V6" s="21">
-        <v>227.44894967846699</v>
-      </c>
-      <c r="W6" s="21">
-        <v>629.46712655914598</v>
-      </c>
-      <c r="X6" s="21">
-        <v>492.50225065264499</v>
-      </c>
+      <c r="T6" s="8"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -16103,24 +16056,13 @@
         <v>3.5678706908207403E-2</v>
       </c>
       <c r="S7" s="24">
-        <f t="shared" si="1"/>
         <v>8.5062280955132217E-3</v>
       </c>
-      <c r="T7" s="8">
-        <v>2.6441492370261801E-2</v>
-      </c>
-      <c r="U7" s="21">
-        <v>987.87974697208494</v>
-      </c>
-      <c r="V7" s="21">
-        <v>230.590870959358</v>
-      </c>
-      <c r="W7" s="21">
-        <v>625.13014043226406</v>
-      </c>
-      <c r="X7" s="21">
-        <v>488.03976924995197</v>
-      </c>
+      <c r="T7" s="8"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
@@ -16179,24 +16121,13 @@
         <v>3.55175303284909E-2</v>
       </c>
       <c r="S8" s="24">
-        <f t="shared" si="1"/>
         <v>4.095417150696108E-3</v>
       </c>
-      <c r="T8" s="8">
-        <v>1.27305475620022E-2</v>
-      </c>
-      <c r="U8" s="21">
-        <v>930.99886889548304</v>
-      </c>
-      <c r="V8" s="21">
-        <v>280.30462183173597</v>
-      </c>
-      <c r="W8" s="21">
-        <v>650.29333809443995</v>
-      </c>
-      <c r="X8" s="21">
-        <v>504.298827525739</v>
-      </c>
+      <c r="T8" s="8"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -16255,24 +16186,13 @@
         <v>5.7488809311912803E-2</v>
       </c>
       <c r="S9" s="24">
-        <f t="shared" si="1"/>
         <v>5.9588455989077263E-3</v>
       </c>
-      <c r="T9" s="8">
-        <v>1.8522989116903098E-2</v>
-      </c>
-      <c r="U9" s="21">
-        <v>1548.96433939381</v>
-      </c>
-      <c r="V9" s="21">
-        <v>477.46606102040101</v>
-      </c>
-      <c r="W9" s="21">
-        <v>1152.4591041246799</v>
-      </c>
-      <c r="X9" s="21">
-        <v>886.77985851391099</v>
-      </c>
+      <c r="T9" s="8"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -16331,24 +16251,13 @@
         <v>6.8906302325622504E-2</v>
       </c>
       <c r="S10" s="24">
-        <f t="shared" si="1"/>
         <v>8.0553808808669705E-3</v>
       </c>
-      <c r="T10" s="8">
-        <v>2.5040040039996801E-2</v>
-      </c>
-      <c r="U10" s="21">
-        <v>946.91676985005097</v>
-      </c>
-      <c r="V10" s="21">
-        <v>284.17592732317098</v>
-      </c>
-      <c r="W10" s="21">
-        <v>684.78724166049506</v>
-      </c>
-      <c r="X10" s="21">
-        <v>644.74836800724495</v>
-      </c>
+      <c r="T10" s="8"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -16407,24 +16316,13 @@
         <v>4.34800006132718E-5</v>
       </c>
       <c r="S11" s="24">
-        <f t="shared" si="1"/>
         <v>4.4938173173259804E-3</v>
       </c>
-      <c r="T11" s="8">
-        <v>1.3968968968995899E-2</v>
-      </c>
-      <c r="U11" s="21">
-        <v>92.390168877759095</v>
-      </c>
-      <c r="V11" s="21">
-        <v>-34.395798539942099</v>
-      </c>
-      <c r="W11" s="21">
-        <v>46.523907501072202</v>
-      </c>
-      <c r="X11" s="21">
-        <v>38.262938976126499</v>
-      </c>
+      <c r="T11" s="8"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -16483,24 +16381,13 @@
         <v>3.5277669106264398E-2</v>
       </c>
       <c r="S12" s="24">
-        <f t="shared" si="1"/>
         <v>2.9409524794693932E-3</v>
       </c>
-      <c r="T12" s="8">
-        <v>9.1419101009306593E-3</v>
-      </c>
-      <c r="U12" s="21">
-        <v>1114.3942936179999</v>
-      </c>
-      <c r="V12" s="21">
-        <v>357.89701665619401</v>
-      </c>
-      <c r="W12" s="21">
-        <v>769.05730910392106</v>
-      </c>
-      <c r="X12" s="21">
-        <v>584.87893307774095</v>
-      </c>
+      <c r="T12" s="8"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
@@ -16559,24 +16446,13 @@
         <v>2.3298904306642498E-2</v>
       </c>
       <c r="S13" s="24">
-        <f t="shared" si="1"/>
         <v>2.0480639980865962E-3</v>
       </c>
-      <c r="T13" s="8">
-        <v>6.3663786076673798E-3</v>
-      </c>
-      <c r="U13" s="21">
-        <v>686.18203981837303</v>
-      </c>
-      <c r="V13" s="21">
-        <v>218.35959681953199</v>
-      </c>
-      <c r="W13" s="21">
-        <v>514.93323432900399</v>
-      </c>
-      <c r="X13" s="21">
-        <v>418.06708965576399</v>
-      </c>
+      <c r="T13" s="8"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
@@ -16635,24 +16511,13 @@
         <v>6.8959224398156493E-2</v>
       </c>
       <c r="S14" s="24">
-        <f t="shared" si="1"/>
         <v>2.0371916596854653E-2</v>
       </c>
-      <c r="T14" s="8">
-        <v>6.3325820941419503E-2</v>
-      </c>
-      <c r="U14" s="21">
-        <v>1683.31404007327</v>
-      </c>
-      <c r="V14" s="21">
-        <v>347.42157468984402</v>
-      </c>
-      <c r="W14" s="21">
-        <v>995.61270464920699</v>
-      </c>
-      <c r="X14" s="21">
-        <v>761.57936560024996</v>
-      </c>
+      <c r="T14" s="8"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
@@ -16711,24 +16576,13 @@
         <v>2.91704334772405E-2</v>
       </c>
       <c r="S15" s="24">
-        <f t="shared" si="1"/>
         <v>3.2461650097071193E-2</v>
       </c>
-      <c r="T15" s="8">
-        <v>0.100906590292419</v>
-      </c>
-      <c r="U15" s="21">
-        <v>616.37055566881804</v>
-      </c>
-      <c r="V15" s="21">
-        <v>-12.493103654216499</v>
-      </c>
-      <c r="W15" s="21">
-        <v>334.27779721013701</v>
-      </c>
-      <c r="X15" s="21">
-        <v>285.390418518003</v>
-      </c>
+      <c r="T15" s="8"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
@@ -16787,24 +16641,13 @@
         <v>3.50903086183934E-2</v>
       </c>
       <c r="S16" s="24">
-        <f t="shared" si="1"/>
         <v>7.9759502086904546E-3</v>
       </c>
-      <c r="T16" s="8">
-        <v>2.4793130894281801E-2</v>
-      </c>
-      <c r="U16" s="21">
-        <v>1369.3702807653301</v>
-      </c>
-      <c r="V16" s="21">
-        <v>327.20147656971102</v>
-      </c>
-      <c r="W16" s="21">
-        <v>844.89970483573904</v>
-      </c>
-      <c r="X16" s="21">
-        <v>653.39084744856495</v>
-      </c>
+      <c r="T16" s="8"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
@@ -16863,24 +16706,13 @@
         <v>2.0034677577726302E-2</v>
       </c>
       <c r="S17" s="24">
-        <f t="shared" si="1"/>
         <v>1.7646806806856298E-3</v>
       </c>
-      <c r="T17" s="8">
-        <v>5.4854854855008704E-3</v>
-      </c>
-      <c r="U17" s="21">
-        <v>539.861610145383</v>
-      </c>
-      <c r="V17" s="21">
-        <v>171.73549323605701</v>
-      </c>
-      <c r="W17" s="21">
-        <v>378.75619525610398</v>
-      </c>
-      <c r="X17" s="21">
-        <v>291.59765590584698</v>
-      </c>
+      <c r="T17" s="8"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
@@ -16939,24 +16771,13 @@
         <v>2.6686572691019698E-2</v>
       </c>
       <c r="S18" s="24">
-        <f t="shared" si="1"/>
         <v>7.8152607779744566E-3</v>
       </c>
-      <c r="T18" s="8">
-        <v>2.4293630021680002E-2</v>
-      </c>
-      <c r="U18" s="21">
-        <v>750.97570431673705</v>
-      </c>
-      <c r="V18" s="21">
-        <v>155.908161976304</v>
-      </c>
-      <c r="W18" s="21">
-        <v>451.19963792212599</v>
-      </c>
-      <c r="X18" s="21">
-        <v>343.87595299300801</v>
-      </c>
+      <c r="T18" s="8"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="21"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
@@ -17015,24 +16836,13 @@
         <v>3.9982849077844697E-2</v>
       </c>
       <c r="S19" s="24">
-        <f t="shared" si="1"/>
         <v>5.1816137416222123E-3</v>
       </c>
-      <c r="T19" s="8">
-        <v>1.6106974639795501E-2</v>
-      </c>
-      <c r="U19" s="21">
-        <v>1122.8798533512299</v>
-      </c>
-      <c r="V19" s="21">
-        <v>328.40819706547802</v>
-      </c>
-      <c r="W19" s="21">
-        <v>755.57662288114602</v>
-      </c>
-      <c r="X19" s="21">
-        <v>569.47288429390005</v>
-      </c>
+      <c r="T19" s="8"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="21"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
@@ -17091,24 +16901,13 @@
         <v>3.3648682051129697E-2</v>
       </c>
       <c r="S20" s="24">
-        <f t="shared" si="1"/>
         <v>1.5868277521616285E-4</v>
       </c>
-      <c r="T20" s="8">
-        <v>4.9326321173814999E-4</v>
-      </c>
-      <c r="U20" s="21">
-        <v>416.07687061415203</v>
-      </c>
-      <c r="V20" s="21">
-        <v>156.444454301381</v>
-      </c>
-      <c r="W20" s="21">
-        <v>379.79746964619102</v>
-      </c>
-      <c r="X20" s="21">
-        <v>323.810614414008</v>
-      </c>
+      <c r="T20" s="8"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="21"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
@@ -17167,24 +16966,13 @@
         <v>5.1420536272708303E-2</v>
       </c>
       <c r="S21" s="24">
-        <f t="shared" si="1"/>
         <v>2.6507490791839059E-3</v>
       </c>
-      <c r="T21" s="8">
-        <v>8.2398168454582092E-3</v>
-      </c>
-      <c r="U21" s="21">
-        <v>1226.60062640252</v>
-      </c>
-      <c r="V21" s="21">
-        <v>419.92349002400601</v>
-      </c>
-      <c r="W21" s="21">
-        <v>915.87980456149501</v>
-      </c>
-      <c r="X21" s="21">
-        <v>715.53109731366806</v>
-      </c>
+      <c r="T21" s="8"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="21"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
@@ -17243,24 +17031,13 @@
         <v>4.1731444523669801E-2</v>
       </c>
       <c r="S22" s="24">
-        <f t="shared" si="1"/>
         <v>4.3570522336448007E-3</v>
       </c>
-      <c r="T22" s="8">
-        <v>1.3543836598212001E-2</v>
-      </c>
-      <c r="U22" s="21">
-        <v>966.72449976204996</v>
-      </c>
-      <c r="V22" s="21">
-        <v>297.52925743912601</v>
-      </c>
-      <c r="W22" s="21">
-        <v>674.29926702526996</v>
-      </c>
-      <c r="X22" s="21">
-        <v>529.360391761085</v>
-      </c>
+      <c r="T22" s="8"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="21"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
@@ -17319,24 +17096,13 @@
         <v>3.84564552545257E-2</v>
       </c>
       <c r="S23" s="24">
-        <f t="shared" si="1"/>
         <v>5.1231048792123824E-3</v>
       </c>
-      <c r="T23" s="8">
-        <v>1.5925100650333798E-2</v>
-      </c>
-      <c r="U23" s="21">
-        <v>897.274382830582</v>
-      </c>
-      <c r="V23" s="21">
-        <v>260.48398623160301</v>
-      </c>
-      <c r="W23" s="21">
-        <v>616.80853431444905</v>
-      </c>
-      <c r="X23" s="21">
-        <v>481.31762334330801</v>
-      </c>
+      <c r="T23" s="8"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="21"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
@@ -17395,24 +17161,13 @@
         <v>3.1505234760075503E-2</v>
       </c>
       <c r="S24" s="24">
-        <f t="shared" si="1"/>
         <v>1.1035274605824439E-2</v>
       </c>
-      <c r="T24" s="8">
-        <v>3.4302998463862103E-2</v>
-      </c>
-      <c r="U24" s="21">
-        <v>1226.82149043605</v>
-      </c>
-      <c r="V24" s="21">
-        <v>224.01443081935599</v>
-      </c>
-      <c r="W24" s="21">
-        <v>707.55912307330095</v>
-      </c>
-      <c r="X24" s="21">
-        <v>580.918820257226</v>
-      </c>
+      <c r="T24" s="8"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="21"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
@@ -17471,24 +17226,13 @@
         <v>2.7472305662257699E-2</v>
       </c>
       <c r="S25" s="24">
-        <f t="shared" si="1"/>
         <v>1.1308562887922768E-2</v>
       </c>
-      <c r="T25" s="8">
-        <v>3.5152511308432603E-2</v>
-      </c>
-      <c r="U25" s="21">
-        <v>1242.64577264791</v>
-      </c>
-      <c r="V25" s="21">
-        <v>196.58706556566699</v>
-      </c>
-      <c r="W25" s="21">
-        <v>679.49068601694103</v>
-      </c>
-      <c r="X25" s="21">
-        <v>537.78447646770201</v>
-      </c>
+      <c r="T25" s="8"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="21"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
@@ -17547,24 +17291,13 @@
         <v>3.3109832390614699E-2</v>
       </c>
       <c r="S26" s="24">
-        <f t="shared" si="1"/>
         <v>3.4042488499865676E-3</v>
       </c>
-      <c r="T26" s="8">
-        <v>1.0582060460014199E-2</v>
-      </c>
-      <c r="U26" s="21">
-        <v>1051.59504659595</v>
-      </c>
-      <c r="V26" s="21">
-        <v>324.72005095744299</v>
-      </c>
-      <c r="W26" s="21">
-        <v>728.58364608209604</v>
-      </c>
-      <c r="X26" s="21">
-        <v>567.47694219339201</v>
-      </c>
+      <c r="T26" s="8"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="21"/>
+      <c r="X26" s="21"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
@@ -17623,24 +17356,13 @@
         <v>4.2356303729342001E-2</v>
       </c>
       <c r="S27" s="24">
-        <f t="shared" si="1"/>
         <v>2.5811519462215398E-3</v>
       </c>
-      <c r="T27" s="8">
-        <v>8.0234751203653708E-3</v>
-      </c>
-      <c r="U27" s="21">
-        <v>1121.56479478911</v>
-      </c>
-      <c r="V27" s="21">
-        <v>376.79971261502402</v>
-      </c>
-      <c r="W27" s="21">
-        <v>813.29773295482096</v>
-      </c>
-      <c r="X27" s="21">
-        <v>638.48149862994296</v>
-      </c>
+      <c r="T27" s="8"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="21"/>
+      <c r="X27" s="21"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
@@ -17699,24 +17421,13 @@
         <v>5.43267694263889E-2</v>
       </c>
       <c r="S28" s="24">
-        <f t="shared" si="1"/>
         <v>1.2597592872495697E-2</v>
       </c>
-      <c r="T28" s="8">
-        <v>3.9159443184630702E-2</v>
-      </c>
-      <c r="U28" s="21">
-        <v>1468.35144256643</v>
-      </c>
-      <c r="V28" s="21">
-        <v>347.51101144200101</v>
-      </c>
-      <c r="W28" s="21">
-        <v>904.957744402662</v>
-      </c>
-      <c r="X28" s="21">
-        <v>742.62083079161505</v>
-      </c>
+      <c r="T28" s="8"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="21"/>
+      <c r="W28" s="21"/>
+      <c r="X28" s="21"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
@@ -17775,24 +17486,13 @@
         <v>1.3533059262052E-2</v>
       </c>
       <c r="S29" s="24">
-        <f t="shared" si="1"/>
         <v>6.9850315336420638E-3</v>
       </c>
-      <c r="T29" s="8">
-        <v>2.17128739000375E-2</v>
-      </c>
-      <c r="U29" s="21">
-        <v>614.46475815286794</v>
-      </c>
-      <c r="V29" s="21">
-        <v>74.4310098806111</v>
-      </c>
-      <c r="W29" s="21">
-        <v>340.52812812910202</v>
-      </c>
-      <c r="X29" s="21">
-        <v>287.63250961154</v>
-      </c>
+      <c r="T29" s="8"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="21"/>
+      <c r="X29" s="21"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
@@ -17851,24 +17551,13 @@
         <v>3.0804693653223601E-2</v>
       </c>
       <c r="S30" s="24">
-        <f t="shared" si="1"/>
         <v>4.9285470469442247E-3</v>
       </c>
-      <c r="T30" s="8">
-        <v>1.53203203200007E-2</v>
-      </c>
-      <c r="U30" s="21">
-        <v>1044.1878583463699</v>
-      </c>
-      <c r="V30" s="21">
-        <v>287.00453036822199</v>
-      </c>
-      <c r="W30" s="21">
-        <v>683.24993773471499</v>
-      </c>
-      <c r="X30" s="21">
-        <v>577.99673270849701</v>
-      </c>
+      <c r="T30" s="8"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="21"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
@@ -17927,24 +17616,13 @@
         <v>5.0125459522533299E-2</v>
       </c>
       <c r="S31" s="24">
-        <f t="shared" si="1"/>
         <v>2.8307003686634967E-3</v>
       </c>
-      <c r="T31" s="8">
-        <v>8.7991929395818992E-3</v>
-      </c>
-      <c r="U31" s="21">
-        <v>438.214218659327</v>
-      </c>
-      <c r="V31" s="21">
-        <v>148.54766260535601</v>
-      </c>
-      <c r="W31" s="21">
-        <v>428.71142018510398</v>
-      </c>
-      <c r="X31" s="21">
-        <v>383.188612964877</v>
-      </c>
+      <c r="T31" s="8"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="21"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
@@ -18003,24 +17681,13 @@
         <v>4.5744890867204901E-2</v>
       </c>
       <c r="S32" s="24">
-        <f t="shared" si="1"/>
         <v>9.1079639090328821E-3</v>
       </c>
-      <c r="T32" s="8">
-        <v>2.8311979822918502E-2</v>
-      </c>
-      <c r="U32" s="21">
-        <v>1181.02413090096</v>
-      </c>
-      <c r="V32" s="21">
-        <v>299.40670796552899</v>
-      </c>
-      <c r="W32" s="21">
-        <v>767.13933865028503</v>
-      </c>
-      <c r="X32" s="21">
-        <v>632.11876948770998</v>
-      </c>
+      <c r="T32" s="8"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="21"/>
+      <c r="X32" s="21"/>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
@@ -18079,24 +17746,13 @@
         <v>5.0421719495332702E-2</v>
       </c>
       <c r="S33" s="24">
-        <f t="shared" si="1"/>
         <v>9.454581678187331E-3</v>
       </c>
-      <c r="T33" s="8">
-        <v>2.9389436363653501E-2</v>
-      </c>
-      <c r="U33" s="21">
-        <v>2287.2101485206799</v>
-      </c>
-      <c r="V33" s="21">
-        <v>593.97705441642302</v>
-      </c>
-      <c r="W33" s="21">
-        <v>1491.5940698970001</v>
-      </c>
-      <c r="X33" s="21">
-        <v>1194.99605022993</v>
-      </c>
+      <c r="T33" s="8"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="21"/>
+      <c r="X33" s="21"/>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
@@ -18155,24 +17811,13 @@
         <v>3.9245419363098201E-2</v>
       </c>
       <c r="S34" s="24">
-        <f t="shared" si="1"/>
         <v>7.8393046744406406E-3</v>
       </c>
-      <c r="T34" s="8">
-        <v>2.4368370141251601E-2</v>
-      </c>
-      <c r="U34" s="21">
-        <v>768.73670568185696</v>
-      </c>
-      <c r="V34" s="21">
-        <v>194.62326457334899</v>
-      </c>
-      <c r="W34" s="21">
-        <v>529.52932054267603</v>
-      </c>
-      <c r="X34" s="21">
-        <v>489.80604989610202</v>
-      </c>
+      <c r="T34" s="8"/>
+      <c r="U34" s="21"/>
+      <c r="V34" s="21"/>
+      <c r="W34" s="21"/>
+      <c r="X34" s="21"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
@@ -18231,24 +17876,13 @@
         <v>4.7275567393185697E-2</v>
       </c>
       <c r="S35" s="24">
-        <f t="shared" si="1"/>
         <v>4.9593428963230568E-3</v>
       </c>
-      <c r="T35" s="8">
-        <v>1.54160487918031E-2</v>
-      </c>
-      <c r="U35" s="21">
-        <v>992.71207382977195</v>
-      </c>
-      <c r="V35" s="21">
-        <v>305.24757976421199</v>
-      </c>
-      <c r="W35" s="21">
-        <v>699.57917419193495</v>
-      </c>
-      <c r="X35" s="21">
-        <v>557.78916774990796</v>
-      </c>
+      <c r="T35" s="8"/>
+      <c r="U35" s="21"/>
+      <c r="V35" s="21"/>
+      <c r="W35" s="21"/>
+      <c r="X35" s="21"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
@@ -18307,24 +17941,13 @@
         <v>4.3183744870667298E-2</v>
       </c>
       <c r="S36" s="24">
-        <f t="shared" si="1"/>
         <v>9.2180172349094532E-3</v>
       </c>
-      <c r="T36" s="8">
-        <v>2.8654079064064201E-2</v>
-      </c>
-      <c r="U36" s="21">
-        <v>1559.5768704249999</v>
-      </c>
-      <c r="V36" s="21">
-        <v>383.69380056582298</v>
-      </c>
-      <c r="W36" s="21">
-        <v>986.94177528306705</v>
-      </c>
-      <c r="X36" s="21">
-        <v>758.89409864134302</v>
-      </c>
+      <c r="T36" s="8"/>
+      <c r="U36" s="21"/>
+      <c r="V36" s="21"/>
+      <c r="W36" s="21"/>
+      <c r="X36" s="21"/>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
@@ -18383,24 +18006,13 @@
         <v>3.5912494669283E-2</v>
       </c>
       <c r="S37" s="24">
-        <f t="shared" si="1"/>
         <v>2.6364543403759534E-3</v>
       </c>
-      <c r="T37" s="8">
-        <v>8.1953818476094304E-3</v>
-      </c>
-      <c r="U37" s="21">
-        <v>975.64512696189195</v>
-      </c>
-      <c r="V37" s="21">
-        <v>319.66406536965599</v>
-      </c>
-      <c r="W37" s="21">
-        <v>708.95434251845904</v>
-      </c>
-      <c r="X37" s="21">
-        <v>571.78348457009304</v>
-      </c>
+      <c r="T37" s="8"/>
+      <c r="U37" s="21"/>
+      <c r="V37" s="21"/>
+      <c r="W37" s="21"/>
+      <c r="X37" s="21"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
@@ -18459,24 +18071,13 @@
         <v>6.6836239436277395E-2</v>
       </c>
       <c r="S38" s="24">
-        <f t="shared" si="1"/>
         <v>4.3456768137345569E-3</v>
       </c>
-      <c r="T38" s="8">
-        <v>1.35084762627745E-2</v>
-      </c>
-      <c r="U38" s="21">
-        <v>797.91096790172799</v>
-      </c>
-      <c r="V38" s="21">
-        <v>265.87776897829502</v>
-      </c>
-      <c r="W38" s="21">
-        <v>645.04932135007903</v>
-      </c>
-      <c r="X38" s="21">
-        <v>587.79781424282703</v>
-      </c>
+      <c r="T38" s="8"/>
+      <c r="U38" s="21"/>
+      <c r="V38" s="21"/>
+      <c r="W38" s="21"/>
+      <c r="X38" s="21"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
@@ -18535,24 +18136,13 @@
         <v>5.39521508375813E-2</v>
       </c>
       <c r="S39" s="24">
-        <f t="shared" si="1"/>
         <v>5.242845760989572E-3</v>
       </c>
-      <c r="T39" s="8">
-        <v>1.6297313524990899E-2</v>
-      </c>
-      <c r="U39" s="21">
-        <v>1229.40772056285</v>
-      </c>
-      <c r="V39" s="21">
-        <v>383.97745783610799</v>
-      </c>
-      <c r="W39" s="21">
-        <v>869.25004034413905</v>
-      </c>
-      <c r="X39" s="21">
-        <v>671.70237257100598</v>
-      </c>
+      <c r="T39" s="8"/>
+      <c r="U39" s="21"/>
+      <c r="V39" s="21"/>
+      <c r="W39" s="21"/>
+      <c r="X39" s="21"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
@@ -18611,24 +18201,13 @@
         <v>4.03209718728448E-2</v>
       </c>
       <c r="S40" s="24">
-        <f t="shared" si="1"/>
         <v>2.6100572999329468E-3</v>
       </c>
-      <c r="T40" s="8">
-        <v>8.1133270125363591E-3</v>
-      </c>
-      <c r="U40" s="21">
-        <v>1065.7893571086199</v>
-      </c>
-      <c r="V40" s="21">
-        <v>355.34480914646502</v>
-      </c>
-      <c r="W40" s="21">
-        <v>756.35629012065704</v>
-      </c>
-      <c r="X40" s="21">
-        <v>656.67328539734103</v>
-      </c>
+      <c r="T40" s="8"/>
+      <c r="U40" s="21"/>
+      <c r="V40" s="21"/>
+      <c r="W40" s="21"/>
+      <c r="X40" s="21"/>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
@@ -18687,24 +18266,13 @@
         <v>1.54705565477684E-2</v>
       </c>
       <c r="S41" s="24">
-        <f t="shared" si="1"/>
         <v>3.9258489377058626E-3</v>
       </c>
-      <c r="T41" s="8">
-        <v>1.2203447117519001E-2</v>
-      </c>
-      <c r="U41" s="21">
-        <v>128.536514548432</v>
-      </c>
-      <c r="V41" s="21">
-        <v>29.038301348914899</v>
-      </c>
-      <c r="W41" s="21">
-        <v>188.07812456455699</v>
-      </c>
-      <c r="X41" s="21">
-        <v>184.82520102648999</v>
-      </c>
+      <c r="T41" s="8"/>
+      <c r="U41" s="21"/>
+      <c r="V41" s="21"/>
+      <c r="W41" s="21"/>
+      <c r="X41" s="21"/>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
@@ -18763,24 +18331,13 @@
         <v>3.72649858492764E-2</v>
       </c>
       <c r="S42" s="24">
-        <f t="shared" si="1"/>
         <v>1.1850410410466534E-2</v>
       </c>
-      <c r="T42" s="8">
-        <v>3.6836836837011298E-2</v>
-      </c>
-      <c r="U42" s="21">
-        <v>1233.8633887629901</v>
-      </c>
-      <c r="V42" s="21">
-        <v>242.33456277244301</v>
-      </c>
-      <c r="W42" s="21">
-        <v>734.44996573317098</v>
-      </c>
-      <c r="X42" s="21">
-        <v>562.96946629861304</v>
-      </c>
+      <c r="T42" s="8"/>
+      <c r="U42" s="21"/>
+      <c r="V42" s="21"/>
+      <c r="W42" s="21"/>
+      <c r="X42" s="21"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
@@ -18839,24 +18396,13 @@
         <v>2.0402855732193401E-2</v>
       </c>
       <c r="S43" s="24">
-        <f t="shared" si="1"/>
         <v>4.3883275281443495E-3</v>
       </c>
-      <c r="T43" s="8">
-        <v>1.3641055418540099E-2</v>
-      </c>
-      <c r="U43" s="21">
-        <v>481.332081218327</v>
-      </c>
-      <c r="V43" s="21">
-        <v>118.01702651957601</v>
-      </c>
-      <c r="W43" s="21">
-        <v>331.279194645019</v>
-      </c>
-      <c r="X43" s="21">
-        <v>265.87415300563299</v>
-      </c>
+      <c r="T43" s="8"/>
+      <c r="U43" s="21"/>
+      <c r="V43" s="21"/>
+      <c r="W43" s="21"/>
+      <c r="X43" s="21"/>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
@@ -18915,24 +18461,13 @@
         <v>2.3098177441120499E-2</v>
       </c>
       <c r="S44" s="24">
-        <f t="shared" si="1"/>
         <v>1.1752063383547872E-2</v>
       </c>
-      <c r="T44" s="8">
-        <v>3.6531126464245799E-2</v>
-      </c>
-      <c r="U44" s="21">
-        <v>856.63513320264406</v>
-      </c>
-      <c r="V44" s="21">
-        <v>105.857247858129</v>
-      </c>
-      <c r="W44" s="21">
-        <v>462.88017858516702</v>
-      </c>
-      <c r="X44" s="21">
-        <v>374.58944613188203</v>
-      </c>
+      <c r="T44" s="8"/>
+      <c r="U44" s="21"/>
+      <c r="V44" s="21"/>
+      <c r="W44" s="21"/>
+      <c r="X44" s="21"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
@@ -18991,24 +18526,13 @@
         <v>3.3059382322832703E-2</v>
       </c>
       <c r="S45" s="24">
-        <f t="shared" si="1"/>
         <v>2.4070054165911746E-3</v>
       </c>
-      <c r="T45" s="8">
-        <v>7.4821430419371301E-3</v>
-      </c>
-      <c r="U45" s="21">
-        <v>919.34414927785303</v>
-      </c>
-      <c r="V45" s="21">
-        <v>301.58390068845</v>
-      </c>
-      <c r="W45" s="21">
-        <v>659.16232540893805</v>
-      </c>
-      <c r="X45" s="21">
-        <v>527.70981139135199</v>
-      </c>
+      <c r="T45" s="8"/>
+      <c r="U45" s="21"/>
+      <c r="V45" s="21"/>
+      <c r="W45" s="21"/>
+      <c r="X45" s="21"/>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
@@ -19067,24 +18591,13 @@
         <v>3.5041169912695097E-2</v>
       </c>
       <c r="S46" s="24">
-        <f t="shared" si="1"/>
         <v>4.4836293330950735E-3</v>
       </c>
-      <c r="T46" s="8">
-        <v>1.3937299760942099E-2</v>
-      </c>
-      <c r="U46" s="21">
-        <v>1150.0074493346399</v>
-      </c>
-      <c r="V46" s="21">
-        <v>337.45475635092299</v>
-      </c>
-      <c r="W46" s="21">
-        <v>802.39605447052804</v>
-      </c>
-      <c r="X46" s="21">
-        <v>628.14784286091106</v>
-      </c>
+      <c r="T46" s="8"/>
+      <c r="U46" s="21"/>
+      <c r="V46" s="21"/>
+      <c r="W46" s="21"/>
+      <c r="X46" s="21"/>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
@@ -19143,24 +18656,13 @@
         <v>2.52256675352669E-2</v>
       </c>
       <c r="S47" s="24">
-        <f t="shared" si="1"/>
         <v>1.0165742380980759E-2</v>
       </c>
-      <c r="T47" s="8">
-        <v>3.16000695709691E-2</v>
-      </c>
-      <c r="U47" s="21">
-        <v>493.94922936048198</v>
-      </c>
-      <c r="V47" s="21">
-        <v>79.779340774857502</v>
-      </c>
-      <c r="W47" s="21">
-        <v>275.49416657845097</v>
-      </c>
-      <c r="X47" s="21">
-        <v>242.19267391512199</v>
-      </c>
+      <c r="T47" s="8"/>
+      <c r="U47" s="21"/>
+      <c r="V47" s="21"/>
+      <c r="W47" s="21"/>
+      <c r="X47" s="21"/>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
@@ -19219,24 +18721,13 @@
         <v>2.42842907379099E-2</v>
       </c>
       <c r="S48" s="24">
-        <f t="shared" si="1"/>
         <v>5.7743558161267635E-3</v>
       </c>
-      <c r="T48" s="8">
-        <v>1.7949505179131998E-2</v>
-      </c>
-      <c r="U48" s="21">
-        <v>1006.64141238872</v>
-      </c>
-      <c r="V48" s="21">
-        <v>235.28446430118501</v>
-      </c>
-      <c r="W48" s="21">
-        <v>668.47176945573403</v>
-      </c>
-      <c r="X48" s="21">
-        <v>533.24167952754794</v>
-      </c>
+      <c r="T48" s="8"/>
+      <c r="U48" s="21"/>
+      <c r="V48" s="21"/>
+      <c r="W48" s="21"/>
+      <c r="X48" s="21"/>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
@@ -19295,24 +18786,13 @@
         <v>2.83406908722981E-2</v>
       </c>
       <c r="S49" s="24">
-        <f t="shared" si="1"/>
         <v>1.5273943283134854E-2</v>
       </c>
-      <c r="T49" s="8">
-        <v>4.7478841414780398E-2</v>
-      </c>
-      <c r="U49" s="21">
-        <v>949.74381609597106</v>
-      </c>
-      <c r="V49" s="21">
-        <v>108.000349063621</v>
-      </c>
-      <c r="W49" s="21">
-        <v>498.17404097272703</v>
-      </c>
-      <c r="X49" s="21">
-        <v>401.23553557726098</v>
-      </c>
+      <c r="T49" s="8"/>
+      <c r="U49" s="21"/>
+      <c r="V49" s="21"/>
+      <c r="W49" s="21"/>
+      <c r="X49" s="21"/>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
@@ -19371,24 +18851,13 @@
         <v>1.5178590197862701E-2</v>
       </c>
       <c r="S50" s="24">
-        <f t="shared" si="1"/>
         <v>9.9961849720872978E-3</v>
       </c>
-      <c r="T50" s="8">
-        <v>3.1073002710871302E-2</v>
-      </c>
-      <c r="U50" s="21">
-        <v>372.31749283601698</v>
-      </c>
-      <c r="V50" s="21">
-        <v>29.091289089586599</v>
-      </c>
-      <c r="W50" s="21">
-        <v>212.67220261054999</v>
-      </c>
-      <c r="X50" s="21">
-        <v>185.65884121392401</v>
-      </c>
+      <c r="T50" s="8"/>
+      <c r="U50" s="21"/>
+      <c r="V50" s="21"/>
+      <c r="W50" s="21"/>
+      <c r="X50" s="21"/>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
@@ -19447,24 +18916,13 @@
         <v>1.52827105506219E-2</v>
       </c>
       <c r="S51" s="24">
-        <f t="shared" si="1"/>
         <v>7.0086603468366209E-3</v>
       </c>
-      <c r="T51" s="8">
-        <v>2.1786323739000999E-2</v>
-      </c>
-      <c r="U51" s="21">
-        <v>459.82373911467198</v>
-      </c>
-      <c r="V51" s="21">
-        <v>64.782250086045494</v>
-      </c>
-      <c r="W51" s="21">
-        <v>262.669729277557</v>
-      </c>
-      <c r="X51" s="21">
-        <v>215.88701346063701</v>
-      </c>
+      <c r="T51" s="8"/>
+      <c r="U51" s="21"/>
+      <c r="V51" s="21"/>
+      <c r="W51" s="21"/>
+      <c r="X51" s="21"/>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
@@ -19523,24 +18981,13 @@
         <v>3.3324513530310199E-2</v>
       </c>
       <c r="S52" s="24">
-        <f t="shared" si="1"/>
         <v>3.9310707817768404E-3</v>
       </c>
-      <c r="T52" s="8">
-        <v>1.2219679147581101E-2</v>
-      </c>
-      <c r="U52" s="21">
-        <v>601.58790127519603</v>
-      </c>
-      <c r="V52" s="21">
-        <v>180.15281305450901</v>
-      </c>
-      <c r="W52" s="21">
-        <v>418.65938464238599</v>
-      </c>
-      <c r="X52" s="21">
-        <v>351.99208394348898</v>
-      </c>
+      <c r="T52" s="8"/>
+      <c r="U52" s="21"/>
+      <c r="V52" s="21"/>
+      <c r="W52" s="21"/>
+      <c r="X52" s="21"/>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
@@ -19599,24 +19046,13 @@
         <v>5.11482412413784E-2</v>
       </c>
       <c r="S53" s="24">
-        <f t="shared" si="1"/>
         <v>5.8723368268283702E-3</v>
       </c>
-      <c r="T53" s="8">
-        <v>1.82540777955498E-2</v>
-      </c>
-      <c r="U53" s="21">
-        <v>1458.1596415691499</v>
-      </c>
-      <c r="V53" s="21">
-        <v>439.453811017585</v>
-      </c>
-      <c r="W53" s="21">
-        <v>1011.58991363527</v>
-      </c>
-      <c r="X53" s="21">
-        <v>791.54140347047598</v>
-      </c>
+      <c r="T53" s="8"/>
+      <c r="U53" s="21"/>
+      <c r="V53" s="21"/>
+      <c r="W53" s="21"/>
+      <c r="X53" s="21"/>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
@@ -19675,24 +19111,13 @@
         <v>9.1111309306910498E-2</v>
       </c>
       <c r="S54" s="24">
-        <f t="shared" si="1"/>
         <v>3.5612898633715414E-3</v>
       </c>
-      <c r="T54" s="8">
-        <v>1.1070220277810201E-2</v>
-      </c>
-      <c r="U54" s="21">
-        <v>1820.9596714059501</v>
-      </c>
-      <c r="V54" s="21">
-        <v>639.16808768473697</v>
-      </c>
-      <c r="W54" s="21">
-        <v>1471.9349622130001</v>
-      </c>
-      <c r="X54" s="21">
-        <v>1404.9202655464301</v>
-      </c>
+      <c r="T54" s="8"/>
+      <c r="U54" s="21"/>
+      <c r="V54" s="21"/>
+      <c r="W54" s="21"/>
+      <c r="X54" s="21"/>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
@@ -19751,24 +19176,13 @@
         <v>-7.0674073374021895E-4</v>
       </c>
       <c r="S55" s="24">
-        <f t="shared" si="1"/>
         <v>7.8837730188058928E-3</v>
       </c>
-      <c r="T55" s="8">
-        <v>2.45065993745909E-2</v>
-      </c>
-      <c r="U55" s="21">
-        <v>83.575765121814896</v>
-      </c>
-      <c r="V55" s="21">
-        <v>-37.969724971010102</v>
-      </c>
-      <c r="W55" s="21">
-        <v>133.23069159808799</v>
-      </c>
-      <c r="X55" s="21">
-        <v>129.13704720179101</v>
-      </c>
+      <c r="T55" s="8"/>
+      <c r="U55" s="21"/>
+      <c r="V55" s="21"/>
+      <c r="W55" s="21"/>
+      <c r="X55" s="21"/>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
@@ -19827,24 +19241,13 @@
         <v>2.95622265572177E-2</v>
       </c>
       <c r="S56" s="24">
-        <f t="shared" si="1"/>
         <v>1.374703232450925E-2</v>
       </c>
-      <c r="T56" s="8">
-        <v>4.27324598212908E-2</v>
-      </c>
-      <c r="U56" s="21">
-        <v>1403.2038699741499</v>
-      </c>
-      <c r="V56" s="21">
-        <v>194.490247210223</v>
-      </c>
-      <c r="W56" s="21">
-        <v>748.89742495132703</v>
-      </c>
-      <c r="X56" s="21">
-        <v>615.363537347023</v>
-      </c>
+      <c r="T56" s="8"/>
+      <c r="U56" s="21"/>
+      <c r="V56" s="21"/>
+      <c r="W56" s="21"/>
+      <c r="X56" s="21"/>
     </row>
     <row r="57" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="3" t="s">
@@ -19903,24 +19306,13 @@
         <v>3.8147591876459302E-2</v>
       </c>
       <c r="S57" s="24">
-        <f t="shared" si="1"/>
         <v>1.1496676728871572E-2</v>
       </c>
-      <c r="T57" s="10">
-        <v>3.5737260580887699E-2</v>
-      </c>
-      <c r="U57" s="22">
-        <v>1374.49496694758</v>
-      </c>
-      <c r="V57" s="22">
-        <v>280.12467302247501</v>
-      </c>
-      <c r="W57" s="22">
-        <v>828.077051054153</v>
-      </c>
-      <c r="X57" s="22">
-        <v>646.07712495447697</v>
-      </c>
+      <c r="T57" s="10"/>
+      <c r="U57" s="22"/>
+      <c r="V57" s="22"/>
+      <c r="W57" s="22"/>
+      <c r="X57" s="22"/>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B58" s="7"/>
